--- a/src/main/resources/files/API 문서.xlsx
+++ b/src/main/resources/files/API 문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HanaBank\workspace\kakao-online\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF67E44-5079-44C5-A259-BBA6194C3CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9478FE85-588C-43A7-A8BF-CB079FB2F6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17130" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{1C7EC08A-CB10-409E-ACF1-25950BAD22D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C7EC08A-CB10-409E-ACF1-25950BAD22D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>이체취소(배치)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조회기간코드(직접설정, 지난달, 3개월, 1개월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정렬구분코드(최신순,과거순)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>거래일련번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,6 +224,94 @@
   </si>
   <si>
     <t>취소사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수설명(도메인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회기간코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(직접설정, 지난달, 3개월, 1개월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오뱅크 특정 계좌의 이체내역을 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;outputGrid&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래종류코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전체,예금이자,자동이체,저금통)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금출금구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(입금,출금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오뱅크 특정 계좌의 특정거래 상세내역을 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오뱅크계좌 혹은 카카오톡친구로 이체한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오뱅크계좌 혹은 타은행내계좌로 이체한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금이 완료되지 않은 거래에 대해 취소 처리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24시간이 지나도록 입금이 완료되지 않은 거래에 대해서 대량으로 취소 처리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림메시지큐에 적재된 건들에 대해서 실제 전송하고 알림전송내역에 적재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN/OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,13 +349,154 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -284,11 +505,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,458 +865,671 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB17298-5040-480E-8A98-A8FC1B250CA6}">
-  <dimension ref="B2:E90"/>
+  <dimension ref="A2:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="29.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="4.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="80.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="H3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="8">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="H8" s="8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="H9" s="8">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="H10" s="10">
+        <v>7</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="13"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="13"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="14"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D46" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="1" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D38" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D39" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D41" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D42" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D43" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D44" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D45" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D46" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D47" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D48" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D55" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D58" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D62" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D64" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D68" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D69" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D70" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D71" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D72" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D73" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D74" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D76" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D77" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D78" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D84" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D85" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D86" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D87" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D88" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D89" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D91" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
